--- a/docs/ST3a/ST3a_05.08.24_output.xlsx
+++ b/docs/ST3a/ST3a_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1236 +505,1468 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731317334.8091877</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731317334.8091877.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731317334.8091877.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>6416.5</v>
       </c>
-      <c r="J3" t="n">
-        <v>6416.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
+      <c r="L3" t="n">
+        <v>6394.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-22</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731317344.0629458</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731317348.5903919</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731317344.0629458.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731317348.5903919.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>497.25</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>497.55</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731317354.6611562</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731317355.3637943</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731317354.6611562.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731317355.3637943.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>224.29</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>224.41</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731317355.3777566</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731317356.2412188</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731317355.3777566.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731317356.2412188.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>224.41</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>223.8</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6099999999999852</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731317360.7945778</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731317361.7321036</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731317360.7945778.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731317361.7321036.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>225.02</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>225.15</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731317361.7460394</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731317362.2188869</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731317361.7460394.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731317362.2188869.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>225.15</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>225.23</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.07999999999998408</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731317362.2328496</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731317362.2328496.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731317362.2328496.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>225.23</v>
       </c>
-      <c r="J9" t="n">
-        <v>225.23</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
+      <c r="L9" t="n">
+        <v>223.39</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-1.840000000000003</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.8200000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731317370.1168532</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731317371.8093224</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731317370.1168532.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731317371.8093224.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>1002.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>1007.2</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731317371.8242824</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731317372.306162</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731317371.8242824.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731317372.306162.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>1007.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>1008.6</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.399999999999977</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731317372.3211265</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731317374.5458107</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731317372.3211265.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731317374.5458107.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1008.6</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1005.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>3.399999999999977</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731317387.1233468</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731317387.3957155</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731317387.1233468.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731317387.3957155.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>124.34</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>124.12</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731317387.4898345</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731317388.9160082</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731317387.4898345.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731317388.9160082.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>124.02</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>124.48</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731317401.2702453</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731317402.9256468</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317401.2702453.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317402.9256468.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>160.74</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>160.82</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.07999999999998408</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731317403.2184262</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731317403.5440857</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317403.2184262.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317403.5440857.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>161.1</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>160.62</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731317404.3822308</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731317404.645616</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317404.3822308.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317404.645616.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>160.8</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>160.58</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731317410.3515992</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731317415.0154877</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731317410.3515992.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731317415.0154877.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>48.73</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>48.97</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.240000000000002</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731317425.2994018</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731317427.3311644</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731317425.2994018.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731317427.3311644.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1379.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1378.8</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731317435.4916162</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731317435.9839547</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731317435.4916162.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731317435.9839547.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>59.62</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>59.63</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731317449.4149876</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731317451.1203291</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317449.4149876.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317451.1203291.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>55.83</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>56.19</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3599999999999994</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731317451.303871</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731317452.3412068</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317451.303871.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317452.3412068.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>56.21</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>56.19</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.02000000000000313</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731317452.3856542</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731317453.0920708</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317452.3856542.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317453.0920708.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>56.18</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>56.19</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731317453.106033</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731317456.7195034</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317453.106033.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317456.7195034.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>56.19</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>55.98</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.2100000000000009</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731317465.5011303</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731317465.5011303.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731317465.5011303.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>142.2</v>
       </c>
-      <c r="J25" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
+      <c r="L25" t="n">
+        <v>141.34</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.8599999999999852</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731317477.9421911</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731317477.9421911.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731317477.9421911.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>19.846</v>
       </c>
-      <c r="J26" t="n">
-        <v>19.846</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>19.761</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.08500000000000085</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731317500.5111582</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731317502.8416135</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/FEES1731317500.5111582.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/FEES1731317502.8416135.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>0.09506000000000001</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>0.09556000000000001</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.0005000000000000004</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.53</v>
       </c>
     </row>
   </sheetData>
@@ -1733,7 +1980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1757,6 +2004,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1765,11 +2027,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7800000000000011</v>
+        <v>-1.060000000000002</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.2120000000000005</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1783,6 +2054,15 @@
       <c r="C3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.1500000000000004</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1796,6 +2076,15 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.2066666666666682</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1809,6 +2098,15 @@
       <c r="C5" t="n">
         <v>3</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.06666666666668182</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.02000000000000002</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1822,6 +2120,15 @@
       <c r="C6" t="n">
         <v>2</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.3400000000000034</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1830,11 +2137,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.08500000000000085</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.08500000000000085</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1848,6 +2164,15 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.01000000000000512</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1861,6 +2186,15 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1874,6 +2208,15 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.0005000000000000004</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.53</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1882,11 +2225,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>-22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.34</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1900,6 +2252,15 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.240000000000002</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.49</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1913,6 +2274,15 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1921,11 +2291,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0.8599999999999852</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.8599999999999852</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1939,6 +2318,11 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
